--- a/public/exports/sub-constructors.xlsx
+++ b/public/exports/sub-constructors.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thanhnt/Code/PBVN-Projects/cag-backpack/public/exports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/cag-backpack/public/exports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B999D00-78F7-2947-BDBD-C47976BFC850}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="37660" windowHeight="21140" xr2:uid="{B3C51E56-BDFA-9C4D-93DB-F277C8937142}"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="37660" windowHeight="20000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -57,9 +59,6 @@
     <t>27/12/2017</t>
   </si>
   <si>
-    <t>Tenant UEN</t>
-  </si>
-  <si>
     <t>sub-company1</t>
   </si>
   <si>
@@ -67,12 +66,15 @@
   </si>
   <si>
     <t>sub-company3</t>
+  </si>
+  <si>
+    <t>Company Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -428,17 +430,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409DEACB-94A0-5A4A-8D8A-4C2AE2787E8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -455,12 +458,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>12323</v>
@@ -477,7 +480,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>4325</v>
@@ -494,7 +497,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3214</v>

--- a/public/exports/sub-constructors.xlsx
+++ b/public/exports/sub-constructors.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,7 +438,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>12323</v>
+        <v>123236</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
